--- a/medicine/Psychotrope/Berliner_Weisse/Berliner_Weisse.xlsx
+++ b/medicine/Psychotrope/Berliner_Weisse/Berliner_Weisse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Berliner Weiße est une bière de fermentation haute brassée traditionnellement à Berlin (Allemagne) et dans ses alentours. Très légère en alcool (2,8 à 3.8 %) et de couleur jaune pâle, elle se caractérise par son acidité, son absence d'amertume et sa forte teneur en gaz.
 Elle se boit à une température de 8 à 10 degrés, souvent avec un fond de sirop (de framboise, de cassis, de carvi ou d'aspérule odorante) pour édulcorer son goût acide, ce qui en fait un cocktail à base de bière.
@@ -512,7 +524,9 @@
           <t>Brassage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Berliner Weiße est traditionnellement brassée avec au minimum 50 % de malt de froment, le reste se composant de malt d'orge (en général un malt Pilsner). La densité primitive de moût est de 7 à 8 %. La fermentation est alcoolique et lactique, c'est-à-dire qu'outre une levure de fermentation haute, une culture de bactéries lactiques est ajoutée au moût pour la fermentation.
 </t>
@@ -543,7 +557,9 @@
           <t>Brasseries</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La brasserie Schneeeule tenue par Ulrike Genz relance la production de la Berliner Weisse à Berlin. 
  Portail de la bière   Portail de l’Allemagne                    </t>
